--- a/results/results_summary.xlsx
+++ b/results/results_summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59923741-695D-4685-A331-2A0F6DB5F67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58D0BC33-19A1-4213-9806-C5980F5305AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final_evaluation" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5320" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5323" uniqueCount="328">
   <si>
     <t>instance</t>
   </si>
@@ -861,6 +861,15 @@
   </si>
   <si>
     <t>accuracy</t>
+  </si>
+  <si>
+    <t>total_wrong_reproduced</t>
+  </si>
+  <si>
+    <t>total_partiallycorrect</t>
+  </si>
+  <si>
+    <t>total_reasoningwrong</t>
   </si>
   <si>
     <t>Crash detection and reasoning results</t>
@@ -1861,9 +1870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B241" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B242" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B257" sqref="B257"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -11164,22 +11173,139 @@
       </c>
     </row>
     <row r="254" spans="1:14">
-      <c r="D254" s="36"/>
-      <c r="E254" s="37"/>
-      <c r="I254" s="37"/>
-      <c r="K254" s="36"/>
+      <c r="A254" t="s">
+        <v>267</v>
+      </c>
+      <c r="B254" s="36">
+        <f>COUNTIFS($B$2:$B$223, "wrong", $A$2:$A$223, "*reproduced*")</f>
+        <v>21</v>
+      </c>
+      <c r="C254" s="37">
+        <f>COUNTIFS($C$2:$C$223, "wrong", $A$2:$A$223, "*reproduced*")</f>
+        <v>12</v>
+      </c>
+      <c r="D254" s="36">
+        <f>COUNTIFS($D$2:$D$223, "wrong", $A$2:$A$223, "*reproduced*")</f>
+        <v>40</v>
+      </c>
+      <c r="E254" s="37">
+        <f>COUNTIFS($E$2:$E$223, "wrong", $A$2:$A$223, "*reproduced*")</f>
+        <v>37</v>
+      </c>
+      <c r="F254" s="36">
+        <f>COUNTIFS($F$2:$F$223, "wrong", $A$2:$A$223, "*reproduced*")</f>
+        <v>32</v>
+      </c>
+      <c r="G254" s="37">
+        <f>COUNTIFS($G$2:$G$223, "wrong", $A$2:$A$223, "*reproduced*")</f>
+        <v>22</v>
+      </c>
+      <c r="H254" s="36">
+        <f>COUNTIFS($H$2:$H$223, "wrong", $A$2:$A$223, "*reproduced*")</f>
+        <v>83</v>
+      </c>
+      <c r="I254" s="37">
+        <f>COUNTIFS($I$2:$I$223, "wrong", $A$2:$A$223, "*reproduced*")</f>
+        <v>84</v>
+      </c>
+      <c r="J254" s="36">
+        <f>COUNTIFS($J$2:$J$223, "wrong", $A$2:$A$223, "*reproduced*")</f>
+        <v>45</v>
+      </c>
+      <c r="K254" s="37">
+        <f>COUNTIFS($K$2:$K$223, "wrong", $A$2:$A$223, "*reproduced*")</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="255" spans="1:14">
-      <c r="D255" s="36"/>
-      <c r="E255" s="37"/>
-      <c r="I255" s="37"/>
-      <c r="K255" s="36"/>
+      <c r="A255" t="s">
+        <v>268</v>
+      </c>
+      <c r="B255" s="36" cm="1">
+        <f t="array" ref="B255">SUM(COUNTIF($B$2:$B$223, {"partially correct"}))</f>
+        <v>1</v>
+      </c>
+      <c r="C255" s="37" cm="1">
+        <f t="array" ref="C255">SUM(COUNTIF($C$2:$C$223, {"partially correct"}))</f>
+        <v>0</v>
+      </c>
+      <c r="D255" s="36" cm="1">
+        <f t="array" ref="D255">SUM(COUNTIF($D$2:$D$223, {"partially correct"}))</f>
+        <v>1</v>
+      </c>
+      <c r="E255" s="37" cm="1">
+        <f t="array" ref="E255">SUM(COUNTIF($E$2:$E$223, {"partially correct"}))</f>
+        <v>1</v>
+      </c>
+      <c r="F255" s="36" cm="1">
+        <f t="array" ref="F255">SUM(COUNTIF($F$2:$F$223, {"partially correct"}))</f>
+        <v>5</v>
+      </c>
+      <c r="G255" s="37" cm="1">
+        <f t="array" ref="G255">SUM(COUNTIF($G$2:$G$223, {"partially correct"}))</f>
+        <v>3</v>
+      </c>
+      <c r="H255" s="36" cm="1">
+        <f t="array" ref="H255">SUM(COUNTIF($H$2:$H$223, {"partially correct"}))</f>
+        <v>1</v>
+      </c>
+      <c r="I255" s="37" cm="1">
+        <f t="array" ref="I255">SUM(COUNTIF($I$2:$I$223, {"partially correct"}))</f>
+        <v>1</v>
+      </c>
+      <c r="J255" s="36" cm="1">
+        <f t="array" ref="J255">SUM(COUNTIF($J$2:$J$223, {"partially correct"}))</f>
+        <v>7</v>
+      </c>
+      <c r="K255" s="37" cm="1">
+        <f t="array" ref="K255">SUM(COUNTIF($K$2:$K$223, {"partially correct"}))</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="256" spans="1:14">
-      <c r="D256" s="36"/>
-      <c r="E256" s="37"/>
-      <c r="I256" s="37"/>
-      <c r="K256" s="36"/>
+      <c r="A256" t="s">
+        <v>269</v>
+      </c>
+      <c r="B256" s="36" cm="1">
+        <f t="array" ref="B256">SUM(COUNTIF($B$2:$B$223, {"reasoning wrong"}))</f>
+        <v>20</v>
+      </c>
+      <c r="C256" s="37" cm="1">
+        <f t="array" ref="C256">SUM(COUNTIF($C$2:$C$223, {"reasoning wrong"}))</f>
+        <v>18</v>
+      </c>
+      <c r="D256" s="36" cm="1">
+        <f t="array" ref="D256">SUM(COUNTIF($D$2:$D$223, {"reasoning wrong"}))</f>
+        <v>14</v>
+      </c>
+      <c r="E256" s="37" cm="1">
+        <f t="array" ref="E256">SUM(COUNTIF($E$2:$E$223, {"reasoning wrong"}))</f>
+        <v>11</v>
+      </c>
+      <c r="F256" s="36" cm="1">
+        <f t="array" ref="F256">SUM(COUNTIF($F$2:$F$223, {"reasoning wrong"}))</f>
+        <v>11</v>
+      </c>
+      <c r="G256" s="37" cm="1">
+        <f t="array" ref="G256">SUM(COUNTIF($G$2:$G$223, {"reasoning wrong"}))</f>
+        <v>7</v>
+      </c>
+      <c r="H256" s="36" cm="1">
+        <f t="array" ref="H256">SUM(COUNTIF($H$2:$H$223, {"reasoning wrong"}))</f>
+        <v>12</v>
+      </c>
+      <c r="I256" s="37" cm="1">
+        <f t="array" ref="I256">SUM(COUNTIF($I$2:$I$223, {"reasoning wrong"}))</f>
+        <v>12</v>
+      </c>
+      <c r="J256" s="36" cm="1">
+        <f t="array" ref="J256">SUM(COUNTIF($J$2:$J$223, {"reasoning wrong"}))</f>
+        <v>44</v>
+      </c>
+      <c r="K256" s="37" cm="1">
+        <f t="array" ref="K256">SUM(COUNTIF($K$2:$K$223, {"reasoning wrong"}))</f>
+        <v>48</v>
+      </c>
     </row>
     <row r="257" spans="4:11">
       <c r="D257" s="36"/>
@@ -11262,8 +11388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93642A88-598F-4D37-B302-F7524EEB88DA}">
   <dimension ref="A1:AF55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11302,20 +11428,20 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="T1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AE1" s="54"/>
       <c r="AF1" s="54"/>
     </row>
     <row r="2" spans="1:32">
       <c r="T2" s="79" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="U2" s="76" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="V2" s="77"/>
       <c r="W2" s="77"/>
@@ -11327,88 +11453,88 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="T3" s="80"/>
       <c r="U3" s="23" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -11478,7 +11604,7 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="T4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="U4" s="25">
         <f ca="1">($B$11/2-$E$11)/(($B$11/2-$E$11)+$C$11)</f>
@@ -11515,7 +11641,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -11585,7 +11711,7 @@
         <v>0.36666666666666664</v>
       </c>
       <c r="T5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="U5" s="71">
         <f ca="1">($B$22/2-$E$22)/(($B$22/2-$E$22)+$C$22)</f>
@@ -11622,7 +11748,7 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -11692,7 +11818,7 @@
         <v>0.8</v>
       </c>
       <c r="T6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="U6" s="25">
         <f ca="1">($B$33/2-$E$33)/(($B$33/2-$E$33)+$C$33)</f>
@@ -11729,7 +11855,7 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -11799,7 +11925,7 @@
         <v>0.8</v>
       </c>
       <c r="T7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="U7" s="24">
         <f ca="1">($B$44/2-$E$44)/(($B$44/2-$E$44)+$C$44)</f>
@@ -11836,7 +11962,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -11906,7 +12032,7 @@
         <v>0.4</v>
       </c>
       <c r="T8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="U8" s="53">
         <f ca="1">($B$55/2-$E$55)/(($B$55/2-$E$55)+$C$55)</f>
@@ -11943,7 +12069,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B9">
         <v>32</v>
@@ -12015,7 +12141,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B10">
         <v>40</v>
@@ -12085,28 +12211,28 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
@@ -12177,7 +12303,7 @@
         <v>0.65315315315315314</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="V11" s="15">
         <f ca="1">V4-U4</f>
@@ -12201,7 +12327,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="T12" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="V12" s="15">
         <f ca="1">V5-U5</f>
@@ -12224,7 +12350,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="T13" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="V13" s="15">
         <f ca="1">V6-U6</f>
@@ -12247,61 +12373,61 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="V14" s="15">
         <f ca="1">V7-U7</f>
@@ -12322,7 +12448,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -12392,7 +12518,7 @@
         <v>0.9</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="V15" s="15">
         <f ca="1">V8-U8</f>
@@ -12413,7 +12539,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B16">
         <v>30</v>
@@ -12485,7 +12611,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -12557,7 +12683,7 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B18">
         <v>30</v>
@@ -12629,7 +12755,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B19">
         <v>30</v>
@@ -12701,7 +12827,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B20">
         <v>32</v>
@@ -12771,17 +12897,17 @@
         <v>0.625</v>
       </c>
       <c r="T20" s="79" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="U20" s="76" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="V20" s="77"/>
       <c r="W20" s="77"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B21">
         <v>40</v>
@@ -12852,18 +12978,18 @@
       </c>
       <c r="T21" s="80"/>
       <c r="U21" s="72" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="V21" s="16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="W21" s="75" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B22">
         <f>SUM(B15:B21)</f>
@@ -12934,7 +13060,7 @@
         <v>0.72522522522522526</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="U22" s="73">
         <f>1-($U$31+$V$31)/444</f>
@@ -12950,7 +13076,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="T23" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="U23" s="73">
         <f>1-($U$32+$V$32)/444</f>
@@ -12966,7 +13092,7 @@
     </row>
     <row r="24" spans="1:25">
       <c r="T24" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="U24" s="73">
         <f>1-($U$33+$V$33)/444</f>
@@ -12982,61 +13108,61 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="U25" s="73">
         <f>1-($U$34+$V$34)/444</f>
@@ -13052,7 +13178,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -13122,7 +13248,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="T26" s="41" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="U26" s="74">
         <f>1-($U$35+$V$35)/444</f>
@@ -13138,7 +13264,7 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B27">
         <v>30</v>
@@ -13208,7 +13334,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="U27" s="73">
         <f>$Y$36</f>
@@ -13224,7 +13350,7 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B28">
         <v>30</v>
@@ -13296,7 +13422,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -13366,12 +13492,12 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="T29" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -13441,27 +13567,27 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Y30" s="26" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B31">
         <v>32</v>
@@ -13531,7 +13657,7 @@
         <v>0.6875</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="U31">
         <v>48</v>
@@ -13552,7 +13678,7 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B32">
         <v>40</v>
@@ -13622,7 +13748,7 @@
         <v>0.95</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="U32">
         <v>33</v>
@@ -13643,7 +13769,7 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B33">
         <f>SUM(B26:B32)</f>
@@ -13714,7 +13840,7 @@
         <v>0.76576576576576572</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="U33">
         <v>32</v>
@@ -13735,7 +13861,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="T34" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="U34">
         <v>19</v>
@@ -13756,7 +13882,7 @@
     </row>
     <row r="35" spans="1:25">
       <c r="T35" s="41" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="U35" s="38">
         <v>83</v>
@@ -13777,61 +13903,61 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="U36">
         <f>SUM(U31:U35)</f>
@@ -13856,7 +13982,7 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -13928,7 +14054,7 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B38">
         <v>30</v>
@@ -13998,12 +14124,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T38" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B39">
         <v>30</v>
@@ -14073,27 +14199,27 @@
         <v>0.5</v>
       </c>
       <c r="T39" s="14" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="U39" s="13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="V39" s="13" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="W39" s="13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="X39" s="13" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Y39" s="26" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B40">
         <v>30</v>
@@ -14163,7 +14289,7 @@
         <v>0.46666666666666667</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="U40">
         <v>91</v>
@@ -14184,7 +14310,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B41">
         <v>30</v>
@@ -14254,7 +14380,7 @@
         <v>0.4</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="U41">
         <v>64</v>
@@ -14275,7 +14401,7 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B42">
         <v>32</v>
@@ -14345,7 +14471,7 @@
         <v>0.5625</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="U42">
         <v>72</v>
@@ -14366,7 +14492,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B43">
         <v>40</v>
@@ -14436,7 +14562,7 @@
         <v>0.7</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="U43">
         <v>22</v>
@@ -14457,7 +14583,7 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B44">
         <f>SUM(B37:B43)</f>
@@ -14528,7 +14654,7 @@
         <v>0.50450450450450446</v>
       </c>
       <c r="T44" s="41" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="U44" s="38">
         <v>77</v>
@@ -14549,7 +14675,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="T45" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="U45">
         <f>SUM(U40:U44)</f>
@@ -14574,63 +14700,63 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B48">
         <v>30</v>
@@ -14702,7 +14828,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B49">
         <v>30</v>
@@ -14774,7 +14900,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B50">
         <v>30</v>
@@ -14846,7 +14972,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B51">
         <v>30</v>
@@ -14918,7 +15044,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B52">
         <v>30</v>
@@ -14990,7 +15116,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B53">
         <v>32</v>
@@ -15062,7 +15188,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B54">
         <v>40</v>
@@ -15134,7 +15260,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B55">
         <f>SUM(B48:B54)</f>
@@ -24658,18 +24784,18 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="T1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:30">
       <c r="T2" s="80" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="U2" s="82" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="V2" s="82"/>
       <c r="W2" s="82"/>
@@ -24683,90 +24809,90 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="T3" s="81"/>
       <c r="U3" s="61" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="V3" s="61" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="W3" s="61" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="X3" s="61" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Y3" s="61" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Z3" s="61" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AA3" s="61" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AB3" s="62" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AC3" s="54"/>
       <c r="AD3" s="54"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -24836,7 +24962,7 @@
         <v>0.6</v>
       </c>
       <c r="T4" s="63" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="U4" s="64">
         <f ca="1">($B$11/2-$E$11)/(($B$11/2-$E$11)+$C$11)</f>
@@ -24875,7 +25001,7 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -24945,7 +25071,7 @@
         <v>0.6</v>
       </c>
       <c r="T5" s="63" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="U5" s="64">
         <f ca="1">($B$22/2-$E$22)/(($B$22/2-$E$22)+$C$22)</f>
@@ -24984,7 +25110,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -25054,7 +25180,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="T6" s="63" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="U6" s="64">
         <f ca="1">($B$33/2-$E$33)/(($B$33/2-$E$33)+$C$33)</f>
@@ -25093,7 +25219,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -25163,7 +25289,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="T7" s="63" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="U7" s="65">
         <f ca="1">($B$44/2-$E$44)/(($B$44/2-$E$44)+$C$44)</f>
@@ -25202,7 +25328,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -25272,7 +25398,7 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="T8" s="66" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="U8" s="67">
         <f ca="1">($B$55/2-$E$55)/(($B$55/2-$E$55)+$C$55)</f>
@@ -25311,7 +25437,7 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B9">
         <v>32</v>
@@ -25383,7 +25509,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B10">
         <v>40</v>
@@ -25453,28 +25579,28 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
@@ -25545,7 +25671,7 @@
         <v>0.73423423423423428</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="V11" s="15">
         <f ca="1">V4-U4</f>
@@ -25569,7 +25695,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="T12" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="V12" s="15">
         <f ca="1">V5-U5</f>
@@ -25592,7 +25718,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="T13" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="V13" s="15">
         <f ca="1">V6-U6</f>
@@ -25615,63 +25741,63 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -25743,7 +25869,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B16">
         <v>30</v>
@@ -25815,7 +25941,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B17">
         <v>30</v>
@@ -25887,7 +26013,7 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B18">
         <v>30</v>
@@ -25962,7 +26088,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B19">
         <v>30</v>
@@ -26034,7 +26160,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B20">
         <v>32</v>
@@ -26106,7 +26232,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B21">
         <v>40</v>
@@ -26184,7 +26310,7 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B22">
         <f>SUM(B15:B21)</f>
@@ -26270,58 +26396,58 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
@@ -26329,7 +26455,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B26">
         <v>30</v>
@@ -26404,7 +26530,7 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B27">
         <v>30</v>
@@ -26476,7 +26602,7 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B28">
         <v>30</v>
@@ -26548,7 +26674,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -26620,7 +26746,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -26692,7 +26818,7 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B31">
         <v>32</v>
@@ -26764,7 +26890,7 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B32">
         <v>40</v>
@@ -26836,7 +26962,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B33">
         <f>SUM(B26:B32)</f>
@@ -26909,63 +27035,63 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -27037,7 +27163,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B38">
         <v>30</v>
@@ -27109,7 +27235,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B39">
         <v>30</v>
@@ -27181,7 +27307,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B40">
         <v>30</v>
@@ -27253,7 +27379,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B41">
         <v>30</v>
@@ -27325,7 +27451,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B42">
         <v>32</v>
@@ -27397,7 +27523,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B43">
         <v>40</v>
@@ -27469,7 +27595,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B44">
         <f>SUM(B37:B43)</f>
@@ -27542,63 +27668,63 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B48">
         <v>30</v>
@@ -27670,7 +27796,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B49">
         <v>30</v>
@@ -27742,7 +27868,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B50">
         <v>30</v>
@@ -27814,7 +27940,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B51">
         <v>30</v>
@@ -27886,7 +28012,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B52">
         <v>30</v>
@@ -27958,7 +28084,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B53">
         <v>32</v>
@@ -28030,7 +28156,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B54">
         <v>40</v>
@@ -28102,7 +28228,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B55">
         <f>SUM(B48:B54)</f>
@@ -28197,7 +28323,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="28" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:1">
